--- a/document/data source_課程資料/普高/skills_info/skills_info_數學乙(上).xlsx
+++ b/document/data source_課程資料/普高/skills_info/skills_info_數學乙(上).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\普高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="規則一樣 接著是數學數學乙(上) skill_curricul" sheetId="1" r:id="rId4"/>
+    <sheet name="規則一樣 接著是數學數學乙(上) skill_curricul" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「邊際成本」C'(x) 是生產第 x+1 單位的「瞬時」成本變化。</t>
-  </si>
-  <si>
     <t>integral_total_change</t>
   </si>
   <si>
@@ -79,9 +84,6 @@
     <t>熟練應用定積分 ∫[a,b] f'(x)dx = f(b) - f(a) 計算總變化量。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「總變化量」等於「變化率函數」的定積分。</t>
-  </si>
-  <si>
     <t>integral_average_value</t>
   </si>
   <si>
@@ -97,9 +99,6 @@
     <t>熟練計算 f(x) 在 [a, b] 上的平均值 (1/(b-a)) ∫[a,b] f(x)dx。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「函數平均值」 = (1 / (區間寬度)) × (區間定積分)。</t>
-  </si>
-  <si>
     <t>integral_consumer_surplus</t>
   </si>
   <si>
@@ -112,9 +111,6 @@
     <t>熟練計算消費者剩餘（需求曲線 D(x) 與價格線 p₀ 之間的面積）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「消費者剩餘」 = ∫[0,x₀] (D(x) - p₀) dx。</t>
-  </si>
-  <si>
     <t>integral_producer_surplus</t>
   </si>
   <si>
@@ -127,23 +123,81 @@
     <t>熟練計算生產者剩餘（價格線 p₀ 與供給曲線 S(x) 之間的面積）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「生產者剩餘」 = ∫[0,x₀] (p₀ - S(x)) dx。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「邊際成本」C'(x) 是生產第 x+1 單位的「瞬時」成本變化。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「總變化量」等於「變化率函數」的定積分。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「函數平均值」 = (1 / (區間寬度)) × (區間定積分)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「消費者剩餘」 = ∫[0,x₀] (D(x) - p₀) dx。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「生產者剩餘」 = ∫[0,x₀] (p₀ - S(x)) dx。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -152,36 +206,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -371,20 +435,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -436,129 +505,133 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>3330.0</v>
-      </c>
+        <v>3330</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>3340.0</v>
-      </c>
+        <v>3340</v>
+      </c>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>3350.0</v>
-      </c>
+        <v>3350</v>
+      </c>
+      <c r="M4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>3360.0</v>
-      </c>
+        <v>3360</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
@@ -567,16 +640,18 @@
         <v>38</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>3370.0</v>
-      </c>
+        <v>3370</v>
+      </c>
+      <c r="M6" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>